--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AF094-4AB4-704E-BFAC-1A0897D8073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9445D97B-11C9-C94A-944E-4801CCA13BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37760" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
+    <sheet name="summary tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>File name</t>
   </si>
@@ -49,12 +50,6 @@
     <t>linear regression</t>
   </si>
   <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>full sample R square</t>
-  </si>
-  <si>
     <t>AAPL_SPY_Volatility.ipynb</t>
   </si>
   <si>
@@ -103,13 +98,164 @@
     <t>nscoreFeatures_regression.ipynb</t>
   </si>
   <si>
-    <t>correlation matrix, consider interactions,</t>
-  </si>
-  <si>
     <t>nscoredFeatures.csv, sub_LH0_M_same.csv, sub_LH0_ROD_same.csv, sub_LH0_M_diff.csv, sub_LH0_ROD_diff.csv</t>
   </si>
   <si>
     <t xml:space="preserve">full sample linear regression, same sign LR, different sign LR </t>
+  </si>
+  <si>
+    <t>nscoreReturns_Regression.ipynb</t>
+  </si>
+  <si>
+    <t>nscoreReturns.csv</t>
+  </si>
+  <si>
+    <t>correlation matrix, regression</t>
+  </si>
+  <si>
+    <t>correlation matrix, consider interactions</t>
+  </si>
+  <si>
+    <t>QQQ.ipynb</t>
+  </si>
+  <si>
+    <t>QQQ_Returns.csv, nscoreReturnsQQQ.csv, technicalIndicatorQQQ.csv, featuresQQQ.csv, nscoreFeaturesQQQ.csv</t>
+  </si>
+  <si>
+    <t>QQQ.csv, uscoreReturnsQQQ.csv, uscoreFeaturesQQQ.csv, nscoreFeaturesQQQ.csv, nscoreFeaturedsWithCombinationQQQ.csv</t>
+  </si>
+  <si>
+    <t>full/sub sample linear regression</t>
+  </si>
+  <si>
+    <t>QQQ_AAPL.ipynb</t>
+  </si>
+  <si>
+    <t>nscoredFeaturesCombinationUpdateQQQ.csv, nscoredFeaturesCombinationUpdate.csv</t>
+  </si>
+  <si>
+    <t>summaryQQQ_AAPL.txt</t>
+  </si>
+  <si>
+    <t>QQQ_update.ipynb</t>
+  </si>
+  <si>
+    <t>summaryQQQ.txt</t>
+  </si>
+  <si>
+    <t>Return_Indicator_Concate.ipynb</t>
+  </si>
+  <si>
+    <t>ReturnsNoNAs.csv, techIndicators.csv,uscoreFeatures.csv</t>
+  </si>
+  <si>
+    <t>features.csv, nscoreFeatures.csv</t>
+  </si>
+  <si>
+    <t>ReturnsCalculation.ipynb</t>
+  </si>
+  <si>
+    <t>AAPL.csv, uscoreReturns.csv</t>
+  </si>
+  <si>
+    <t>mergedReturns.csv, nscoreReturns.csv</t>
+  </si>
+  <si>
+    <t>SPY.ipynb</t>
+  </si>
+  <si>
+    <t>SPY_Returns.csv, nscoreReturnsSPY.csv, technicalIndicatorSPY.csv, nscoredFeaturesSPY.csv</t>
+  </si>
+  <si>
+    <t>SPY.csv, uscoreReturnsSPY.csv, SPY_Returns.csv, technicalIndicatorSPY.csv, nscoredFeaturesSPY.csv, nscoredFeaturesWithCombinationSPY.csv</t>
+  </si>
+  <si>
+    <t>nscoredFeaturesCombinationUpdateQQQ.csv</t>
+  </si>
+  <si>
+    <t>R square</t>
+  </si>
+  <si>
+    <t>adjust R square</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>input features</t>
+  </si>
+  <si>
+    <t>MACD_15_30_9','MACDs_15_30_9','RSI_30','DMP_30','MOM_30','BBP_30_2.0',
+                    'AROOND_30','OBV','R_LH0','R_M','R_ROD', interactions among above</t>
+  </si>
+  <si>
+    <t>reason why we focus on SPY later on</t>
+  </si>
+  <si>
+    <t>SPY_Features.ipynb</t>
+  </si>
+  <si>
+    <t>Returns_LH_LH0_FH_ROD.csv, technicalIndicatorSPY.csv, featuresSPY_LH0.csv,techIndicatorsSPY_ROD.csv, featuresSPY_LH0.csv, techIndicatorsSPY_LH0_Rt_ROD.csv, Features_FH.csv, features_FH_Rt_ROD.csv</t>
+  </si>
+  <si>
+    <t>SPY.csv, featuresSPY_LH0.csv, techIndicatorsSPY_ROD.csv, SPY_Returns_LH_LH0_FH_ROD.csv,Features_FH.csv, techIndicatorsSPY_ROD.csv</t>
+  </si>
+  <si>
+    <t>SPY_LogisticRegression.ipynb</t>
+  </si>
+  <si>
+    <t>SPY_RV.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technicalIndicatorSPY.csv,SPY_Returns_LH_LH0_FH_ROD.csv, techIndicatorsSPY_ROD.csv, </t>
+  </si>
+  <si>
+    <t>featuresSPY_LH0.csv, techIndicatorsSPY_ROD.csv, techIndicatorsSPY_LH0_Rt_ROD.csv, Features_FH.csv, features_FH_Rt_ROD.csv</t>
+  </si>
+  <si>
+    <t>SPY_update.ipynb</t>
+  </si>
+  <si>
+    <t>summarySPY.txt</t>
+  </si>
+  <si>
+    <t>Sub-Sample-Regression.ipynb</t>
+  </si>
+  <si>
+    <t>nscoredFeaturesWithCombination.csv</t>
+  </si>
+  <si>
+    <t>sub sample regression</t>
+  </si>
+  <si>
+    <t>TechnicalIndicatorsCalculation.ipynb</t>
+  </si>
+  <si>
+    <t>AAPL.csv</t>
+  </si>
+  <si>
+    <t>techIndicators.csv</t>
+  </si>
+  <si>
+    <t>test_LSTM.ipynb, test_LSTM01.ipynb</t>
+  </si>
+  <si>
+    <t>RF_final_data_scaled_dropped.csv</t>
+  </si>
+  <si>
+    <t>LSTM, cannot beat random guess</t>
+  </si>
+  <si>
+    <t>uscoreFunction.R</t>
+  </si>
+  <si>
+    <t>calculate uscore features for AAPL, QQQ and SPY</t>
   </si>
 </sst>
 </file>
@@ -147,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,11 +301,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,8 +334,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -191,6 +356,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1499518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2321958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47160A3-5A69-1945-BACD-300B6AAEE633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5959819" y="8798193"/>
+          <a:ext cx="2222500" cy="1435100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="166" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,46 +716,40 @@
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -550,2166 +758,2075 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADABC2D-9E26-8243-9278-DEB0354BBAF6}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="75.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9445D97B-11C9-C94A-944E-4801CCA13BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA1386-CA33-A147-9D1C-21C82848BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
   <si>
     <t>File name</t>
   </si>
@@ -201,6 +201,9 @@
     <t>SPY_Features.ipynb</t>
   </si>
   <si>
+    <t>Returns_LH_LH0_FH_ROD.csv</t>
+  </si>
+  <si>
     <t>Returns_LH_LH0_FH_ROD.csv, technicalIndicatorSPY.csv, featuresSPY_LH0.csv,techIndicatorsSPY_ROD.csv, featuresSPY_LH0.csv, techIndicatorsSPY_LH0_Rt_ROD.csv, Features_FH.csv, features_FH_Rt_ROD.csv</t>
   </si>
   <si>
@@ -256,13 +259,163 @@
   </si>
   <si>
     <t>calculate uscore features for AAPL, QQQ and SPY</t>
+  </si>
+  <si>
+    <t>/Python Code</t>
+  </si>
+  <si>
+    <t>/PythonCode/AAPL</t>
+  </si>
+  <si>
+    <t>concat_Returns_LH0_ROD.ipynb</t>
+  </si>
+  <si>
+    <t>concate_std.ipynb</t>
+  </si>
+  <si>
+    <t>Features_LH0.ipynb</t>
+  </si>
+  <si>
+    <t>Features_LH0_std.ipynb</t>
+  </si>
+  <si>
+    <t>Features_ROD.ipynb</t>
+  </si>
+  <si>
+    <t>Features_ROD_std.ipynb</t>
+  </si>
+  <si>
+    <t>nscoreFeatures.ipynb</t>
+  </si>
+  <si>
+    <t>RealizedVolatility.ipynb</t>
+  </si>
+  <si>
+    <t>Returns.ipynb</t>
+  </si>
+  <si>
+    <t>uscoreFeatures.R</t>
+  </si>
+  <si>
+    <t>/PythonCode/AMZON</t>
+  </si>
+  <si>
+    <t>/PythonCode/GOOGLE</t>
+  </si>
+  <si>
+    <t>/PythonCode/SPY</t>
+  </si>
+  <si>
+    <t>concat_std.ipynb</t>
+  </si>
+  <si>
+    <t>concate_Returns_LH0_ROD.ipynb</t>
+  </si>
+  <si>
+    <t>Features_update_LH0.ipynb</t>
+  </si>
+  <si>
+    <t>Features_without_interaction.ipynb</t>
+  </si>
+  <si>
+    <t>last_30_return_creative_way.ipynb</t>
+  </si>
+  <si>
+    <t>Logistic_raw_avg.ipynb</t>
+  </si>
+  <si>
+    <t>Logistic_raw_avg_std.ipynb</t>
+  </si>
+  <si>
+    <t>logisticR_randomF.ipynb</t>
+  </si>
+  <si>
+    <t>LR.ipynb</t>
+  </si>
+  <si>
+    <t>LR_backward_avg_raw.ipynb</t>
+  </si>
+  <si>
+    <t>LR_backward_avg_std.ipynb</t>
+  </si>
+  <si>
+    <t>LR_features_selection.ipynb</t>
+  </si>
+  <si>
+    <t>Market_regime.ipynb</t>
+  </si>
+  <si>
+    <t>Market_regime_scaling.ipynb</t>
+  </si>
+  <si>
+    <t>NeuralNetwork.ipynb</t>
+  </si>
+  <si>
+    <t>Random_Forest_CV_grid.ipynb</t>
+  </si>
+  <si>
+    <t>RandomForest_Feature_Selection.ipynb</t>
+  </si>
+  <si>
+    <t>RandomForest_scale.ipynb</t>
+  </si>
+  <si>
+    <t>RandomForest_Smote.ipynb</t>
+  </si>
+  <si>
+    <t>RF_raw_smote.ipynb</t>
+  </si>
+  <si>
+    <t>RF_smote_colN.ipynb</t>
+  </si>
+  <si>
+    <t>RF_smote_return10.ipynb</t>
+  </si>
+  <si>
+    <t>test_random.ipynb</t>
+  </si>
+  <si>
+    <t>Reading Algoseek.R</t>
+  </si>
+  <si>
+    <t>Features_LH0_ROD_returns.csv</t>
+  </si>
+  <si>
+    <t>Returns_LH_LH0_FH_ROD.csv, Features_LH0.csv,Features_ROD.csv</t>
+  </si>
+  <si>
+    <t>Returns_LH_LH0_FH_ROD.csv, Features_LH0_std.csv,Features_ROD_std.csv</t>
+  </si>
+  <si>
+    <t>Features_LH0_ROD_returns_std.csv</t>
+  </si>
+  <si>
+    <t>Features_LH0.csv</t>
+  </si>
+  <si>
+    <t>Features_LH0_std.csv</t>
+  </si>
+  <si>
+    <t>Features_ROD.csv</t>
+  </si>
+  <si>
+    <t>Features_ROD_std.csv</t>
+  </si>
+  <si>
+    <t>uscoreFeatures.csv</t>
+  </si>
+  <si>
+    <t>AAPL.csv, Features_LH0_ROD_returns_std.csv</t>
+  </si>
+  <si>
+    <t>allFeatures_std.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,8 +431,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +458,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,6 +513,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,10 +918,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -933,17 +1127,17 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -996,77 +1190,77 @@
     </row>
     <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1078,84 +1272,150 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
@@ -1169,84 +1429,114 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
@@ -1259,88 +1549,118 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
+    <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,231 +1671,303 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="3"/>
@@ -1589,10 +1981,10 @@
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="3"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,10 +3136,16 @@
       <c r="E269" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA1386-CA33-A147-9D1C-21C82848BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2A56E-EFD1-2C4C-8412-A39C8336D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
   <si>
     <t>File name</t>
   </si>
@@ -312,9 +312,6 @@
     <t>concate_Returns_LH0_ROD.ipynb</t>
   </si>
   <si>
-    <t>Features_update_LH0.ipynb</t>
-  </si>
-  <si>
     <t>Features_without_interaction.ipynb</t>
   </si>
   <si>
@@ -372,12 +369,6 @@
     <t>RF_smote_return10.ipynb</t>
   </si>
   <si>
-    <t>test_random.ipynb</t>
-  </si>
-  <si>
-    <t>Reading Algoseek.R</t>
-  </si>
-  <si>
     <t>Features_LH0_ROD_returns.csv</t>
   </si>
   <si>
@@ -409,6 +400,150 @@
   </si>
   <si>
     <t>allFeatures_std.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns_LH_LH0_FH_ROD.csv, Features_LH0_std.csv,Features_ROD_std.csv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns_LH_LH0_FH_ROD.csv, Features_LH0.csv,Features_ROD.csv </t>
+  </si>
+  <si>
+    <t>SPY.csv</t>
+  </si>
+  <si>
+    <t>SPY/allFeatures.csv, AAPL/allFeatures.csv, AMZN/allFeatures.csv, GOOG/allFeatures.csv</t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_goog_allFeatures_no_interaction.csv</t>
+  </si>
+  <si>
+    <t>creative_last_30_return.csv</t>
+  </si>
+  <si>
+    <t>SPY.csv, RF_final_data_scaled_dropped.csv,creative_last_30_return.csv</t>
+  </si>
+  <si>
+    <t>random forest</t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_goog_raw_avg.csv</t>
+  </si>
+  <si>
+    <t>BackwardEli, logistic regression</t>
+  </si>
+  <si>
+    <t>sigFeatures_LR_selection.csv</t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_goog_raw_avg_std.csv</t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_goog.csv</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>logistic regression</t>
+  </si>
+  <si>
+    <t>Backward Elimination, logistic regression, random forest regressor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlation matrix, pairwise interaction, linear regression, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPY/nscoreFeatures.csv, AAPL/nscoreFeatures.csv,AMZN/nscoreFeatures.csv,GOOG/nscoreFeatures.csv  </t>
+  </si>
+  <si>
+    <t>SPY_AAPL_int.csv, spy_aapl_amzn_ints.csv, sig_goog_ints.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backward Elimination, correlation calculation, </t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_raw_avg.csv, spy_aapl_amzn_goog_raw_avg_allFeatures.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPY/allFeatures_std.csv,  SPY/allFeatures.csv,AAPL/allFeatures.csv,AAPL/allFeatures_std.csv,AMZN/allFeatures.csv,AMZN/allFeatures_std.csv, GOOG/allFeatures.csv,  GOOG/allFeatures_std.csv </t>
+  </si>
+  <si>
+    <t>spy_aapl_amzn_goog_raw_avg.csv,spy_aapl_amzn_goog_raw_avg_allFeatures.csv</t>
+  </si>
+  <si>
+    <t>data_RF.csv</t>
+  </si>
+  <si>
+    <t>linear regression, Backward Elimination</t>
+  </si>
+  <si>
+    <t>Clustering by DTW, random forest</t>
+  </si>
+  <si>
+    <t>logReturns_for_DTW_cluster_scaled.csv,regime_labels_dtw_scaled.csv</t>
+  </si>
+  <si>
+    <t>SPY.csv,RF_final_data_scaled_dropped.csv, regime_labels_dtw_scaled.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spy_aapl_amzn_goog_allFeatures_no_interaction.csv, data_RF.csv, </t>
+  </si>
+  <si>
+    <t>cannot beat random guessing</t>
+  </si>
+  <si>
+    <t>SPY/allFeatures.csv</t>
+  </si>
+  <si>
+    <t>SPY/nscoreFeatures.csv</t>
+  </si>
+  <si>
+    <t>neural networks</t>
+  </si>
+  <si>
+    <t>Random forest regressor, parameter tuning</t>
+  </si>
+  <si>
+    <t>DATA/spy_aapl_amzn_goog_allFeatures_no_interaction.csv, DATA/data_RF.csv</t>
+  </si>
+  <si>
+    <t>RF_features_selection.csv, allFeatures_RF.csv,DATA/RF_final_data.csv</t>
+  </si>
+  <si>
+    <t>DATA/spy_aapl_amzn_goog_allFeatures_no_interaction.csv, DATA/data_RF.csv,DATA/sigFeatures_LR_selection.csv</t>
+  </si>
+  <si>
+    <t>RF_features_selection.csv,DATA/allFeatures_RF.csv</t>
+  </si>
+  <si>
+    <t>DATA/RF_features_scaled_dropped.csv,DATA/data_RF.csv,allFeatures_RF_scaled_dropped.csv,RF_final_data_scaled_dropped.csv</t>
+  </si>
+  <si>
+    <t>DATA/RF_final_data_scaled_dropped.csv</t>
+  </si>
+  <si>
+    <t>SPY/Performance_SMOTE/row_normalization_smote.csv</t>
+  </si>
+  <si>
+    <t>random forest, smote</t>
+  </si>
+  <si>
+    <t>SPY.csv,SPY/Features_LH0_ROD_returns_std.csv</t>
+  </si>
+  <si>
+    <t>SPY/allFeatures_std.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spy.csv,Returns_LH_LH0_FH_ROD.csv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA/SPY_LH10.csv, </t>
+  </si>
+  <si>
+    <t>SPY.csv,RF_final_data_scaled_dropped.csv</t>
+  </si>
+  <si>
+    <t>allFeatures.csv</t>
   </si>
 </sst>
 </file>
@@ -494,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,9 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,6 +663,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,6 +735,358 @@
         <a:xfrm>
           <a:off x="5959819" y="8798193"/>
           <a:ext cx="2222500" cy="1435100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53554</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2383</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>130519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72805F6E-1C67-414E-BEE4-5D717C36383B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083494" y="24397771"/>
+          <a:ext cx="3251200" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>810964</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771333</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>162652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370FB261-91D4-4741-87C7-3B2F79E39E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13319699" y="24382470"/>
+          <a:ext cx="1612900" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45903</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>137711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500808</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>102213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5954EE4-2DA5-7E4E-BD29-FBBB98F0B40E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10075843" y="26180362"/>
+          <a:ext cx="2933700" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>772711</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>453680</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>179329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B190AED5-219A-6A47-B22E-C061D5117F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13281446" y="26172710"/>
+          <a:ext cx="1333500" cy="1717101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45902</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385742</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>178872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE43E0DE-3858-4C47-AE11-C676CD04A543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10075842" y="28161868"/>
+          <a:ext cx="3644900" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>374880</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>183616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755114</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6223B5-9362-6248-8635-558B8073EA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13709880" y="28307230"/>
+          <a:ext cx="1206500" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336627</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>153011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>804996</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>168312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5FCDF4-F646-1446-9477-569E6029170A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10366567" y="29944457"/>
+          <a:ext cx="2120900" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175964</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>45904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365699</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>134039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41418400-4710-7C4D-B24C-CA7F59672865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12684699" y="29837350"/>
+          <a:ext cx="1016000" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,18 +1395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="165" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -918,12 +1417,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1136,55 +1635,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -1272,12 +1771,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1300,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
@@ -1313,10 +1812,10 @@
         <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
@@ -1329,7 +1828,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
@@ -1342,7 +1841,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
@@ -1355,7 +1854,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
@@ -1368,7 +1867,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
@@ -1378,7 +1877,7 @@
         <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1391,10 +1890,10 @@
         <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1429,12 +1928,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1550,587 +2049,835 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="B85" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="B94" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="B100" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B114" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
+    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+    <row r="118" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+    <row r="119" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
+    <row r="120" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
+    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
@@ -2142,10 +2889,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3135,17 +3882,198 @@
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="29">
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A128:D128"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum_python/Intraday Momentum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2A56E-EFD1-2C4C-8412-A39C8336D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F639A15-C9B5-D543-A837-38740F27F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="7180" yWindow="4140" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
     <sheet name="summary tables" sheetId="2" r:id="rId2"/>
+    <sheet name="linear regression" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>File name</t>
   </si>
@@ -544,13 +545,91 @@
   </si>
   <si>
     <t>allFeatures.csv</t>
+  </si>
+  <si>
+    <t>beta_LH0</t>
+  </si>
+  <si>
+    <t>beta_ROD</t>
+  </si>
+  <si>
+    <t>beta_ON</t>
+  </si>
+  <si>
+    <t>beta_FH</t>
+  </si>
+  <si>
+    <t>beta_ONFH</t>
+  </si>
+  <si>
+    <t>beta_M</t>
+  </si>
+  <si>
+    <t>beta_SLH</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>adjust R^2</t>
+  </si>
+  <si>
+    <t>-0.0629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0880	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0320	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	-0.0565</t>
+  </si>
+  <si>
+    <t>0.1355</t>
+  </si>
+  <si>
+    <t>0.0347</t>
+  </si>
+  <si>
+    <t>0.0118</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>-0.0787</t>
+  </si>
+  <si>
+    <t>0.1732</t>
+  </si>
+  <si>
+    <t>0.0814</t>
+  </si>
+  <si>
+    <t>0.0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0791	</t>
+  </si>
+  <si>
+    <t>-0.0297</t>
+  </si>
+  <si>
+    <t>0.0053</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -581,8 +660,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +684,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,23 +753,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1514,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="14"/>
@@ -1739,7 +1836,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -1752,7 +1849,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1771,7 +1868,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="14"/>
@@ -1928,7 +2025,7 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="14"/>
@@ -2049,12 +2146,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2170,7 +2267,7 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B71" s="14"/>
@@ -2284,66 +2381,66 @@
       <c r="D79" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
@@ -2358,99 +2455,99 @@
       <c r="D85" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
@@ -2463,66 +2560,66 @@
       <c r="D94" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
@@ -2535,101 +2632,101 @@
       <c r="D100" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -2647,7 +2744,7 @@
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -2656,7 +2753,7 @@
       <c r="C110" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E110" s="3"/>
@@ -2671,7 +2768,7 @@
       <c r="C111" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E111" s="3"/>
@@ -2719,7 +2816,7 @@
       </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -4085,7 +4182,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4157,4 +4254,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="F2" s="19">
+        <v>-0.49509999999999998</v>
+      </c>
+      <c r="G2" s="18">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="20">
+        <v>-8.8099999999999998E-2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F639A15-C9B5-D543-A837-38740F27F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331D9E-B26E-7542-8EF0-33C3CCB7DE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="4140" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
-    <sheet name="summary tables" sheetId="2" r:id="rId2"/>
-    <sheet name="linear regression" sheetId="3" r:id="rId3"/>
+    <sheet name="tables" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="231">
   <si>
     <t>File name</t>
   </si>
@@ -174,12 +173,6 @@
     <t>nscoredFeaturesCombinationUpdateQQQ.csv</t>
   </si>
   <si>
-    <t>R square</t>
-  </si>
-  <si>
-    <t>adjust R square</t>
-  </si>
-  <si>
     <t>AAPL</t>
   </si>
   <si>
@@ -189,16 +182,6 @@
     <t>SPY</t>
   </si>
   <si>
-    <t>input features</t>
-  </si>
-  <si>
-    <t>MACD_15_30_9','MACDs_15_30_9','RSI_30','DMP_30','MOM_30','BBP_30_2.0',
-                    'AROOND_30','OBV','R_LH0','R_M','R_ROD', interactions among above</t>
-  </si>
-  <si>
-    <t>reason why we focus on SPY later on</t>
-  </si>
-  <si>
     <t>SPY_Features.ipynb</t>
   </si>
   <si>
@@ -623,13 +606,136 @@
   </si>
   <si>
     <t>0.029</t>
+  </si>
+  <si>
+    <t>Model accuracy 0.5413416536661466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.51      0.52      0.52       300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.57      0.56      0.56       341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.54       641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.54      0.54      0.54       641</t>
+  </si>
+  <si>
+    <t>weighted avg       0.54      0.54      0.54       641</t>
+  </si>
+  <si>
+    <t>Model accuracy 0.5663026521060842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.56      0.43      0.48       304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.57      0.69      0.63       337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.57       641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.56      0.56      0.55       641</t>
+  </si>
+  <si>
+    <t>weighted avg       0.56      0.57      0.56       641</t>
+  </si>
+  <si>
+    <t>original last 30 mins return</t>
+  </si>
+  <si>
+    <t>creative last 30 min return</t>
+  </si>
+  <si>
+    <t>Model accuracy 0.5538221528861155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.57      0.59      0.58       337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.53      0.52      0.52       304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.55       641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.55      0.55      0.55       641</t>
+  </si>
+  <si>
+    <t>weighted avg       0.55      0.55      0.55       641</t>
+  </si>
+  <si>
+    <t>last 10 min return</t>
+  </si>
+  <si>
+    <t>AAPL_python/PythonCode/SPY/RandomForest_Smote.ipynb</t>
+  </si>
+  <si>
+    <t>AAPL_python/PythonCode/SPY/RF_smote_return10.ipynb</t>
+  </si>
+  <si>
+    <t>AAPL_python/PythonCode/SPY/last_30_return_creative_way.ipynb</t>
+  </si>
+  <si>
+    <t>Model accuracy 0.5533596837944664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.56      0.43      0.48       124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.55      0.67      0.61       129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.55       253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.55      0.55      0.55       253</t>
+  </si>
+  <si>
+    <t>weighted avg       0.55      0.55      0.55       253</t>
+  </si>
+  <si>
+    <t>Model accuracy 0.5452196382428941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.56      0.44      0.49       193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.54      0.65      0.59       194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.55       387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.55      0.54      0.54       387</t>
+  </si>
+  <si>
+    <t>weighted avg       0.55      0.55      0.54       387</t>
+  </si>
+  <si>
+    <t>regime 0</t>
+  </si>
+  <si>
+    <t>regime 1</t>
+  </si>
+  <si>
+    <t>market regime</t>
+  </si>
+  <si>
+    <t>AAPL_python/PythonCode/SPY/Market_regime_scaling.ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,6 +772,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -693,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -701,26 +813,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,10 +831,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,6 +870,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,12 +1612,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1720,143 +1818,143 @@
     </row>
     <row r="17" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1868,12 +1966,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1893,88 +1991,88 @@
     </row>
     <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1984,33 +2082,33 @@
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2025,12 +2123,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2050,7 +2148,7 @@
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2059,7 +2157,7 @@
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2068,7 +2166,7 @@
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2077,7 +2175,7 @@
     </row>
     <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2086,7 +2184,7 @@
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2095,7 +2193,7 @@
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2104,7 +2202,7 @@
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2113,7 +2211,7 @@
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2122,7 +2220,7 @@
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2131,7 +2229,7 @@
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2146,117 +2244,117 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2267,658 +2365,658 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-    </row>
-    <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="14" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="E100" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-    </row>
-    <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
-        <v>97</v>
+      <c r="A110" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>148</v>
+        <v>96</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
@@ -2926,54 +3024,54 @@
     </row>
     <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>160</v>
+        <v>103</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -2986,10 +3084,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4178,220 +4276,533 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADABC2D-9E26-8243-9278-DEB0354BBAF6}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="75.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J2" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0.37119999999999997</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0.26440000000000002</v>
-      </c>
-      <c r="F2" s="19">
-        <v>-0.49509999999999998</v>
-      </c>
-      <c r="G2" s="18">
-        <v>-2.6599999999999999E-2</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="J2" s="18">
-        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="20">
-        <v>-8.8099999999999998E-2</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="21">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-0.49509999999999998</v>
+      </c>
+      <c r="G3" s="16">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="I3" s="16">
         <v>0.02</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>185</v>
+      <c r="J3" s="16">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-8.8099999999999998E-2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="18" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="18" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H9" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>194</v>
       </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="I41" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+    </row>
+    <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+    </row>
+    <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="P42:R50"/>
+    <mergeCell ref="H30:J38"/>
+    <mergeCell ref="H20:J27"/>
+    <mergeCell ref="H9:J16"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="I41:O41"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331D9E-B26E-7542-8EF0-33C3CCB7DE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBD531-FE78-444D-A021-DB07FED23CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="37820" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="3" r:id="rId2"/>
+    <sheet name="reference" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="270">
   <si>
     <t>File name</t>
   </si>
@@ -729,6 +730,123 @@
   </si>
   <si>
     <t>AAPL_python/PythonCode/SPY/Market_regime_scaling.ipynb</t>
+  </si>
+  <si>
+    <t>R_LH0</t>
+  </si>
+  <si>
+    <t>R_ROD</t>
+  </si>
+  <si>
+    <t>MACD_LH0</t>
+  </si>
+  <si>
+    <t>MACDs_LH0</t>
+  </si>
+  <si>
+    <t>DMP_LH0</t>
+  </si>
+  <si>
+    <t>MOM_LH0</t>
+  </si>
+  <si>
+    <t>BBB_LH0</t>
+  </si>
+  <si>
+    <t>MACDh_ROD</t>
+  </si>
+  <si>
+    <t>BBB_ROD</t>
+  </si>
+  <si>
+    <t>AROOND_ROD</t>
+  </si>
+  <si>
+    <t>AROONU_ROD</t>
+  </si>
+  <si>
+    <t>RV_LH0</t>
+  </si>
+  <si>
+    <t>RV_ROD</t>
+  </si>
+  <si>
+    <t>MACD_diff_LH0</t>
+  </si>
+  <si>
+    <t>MACD_diff_ROD</t>
+  </si>
+  <si>
+    <t>MACDh_LH0_AZ</t>
+  </si>
+  <si>
+    <t>ADX_LH0_AZ</t>
+  </si>
+  <si>
+    <t>BBB_LH0_AZ</t>
+  </si>
+  <si>
+    <t>DMN_ROD_AZ</t>
+  </si>
+  <si>
+    <t>BBB_ROD_AZ</t>
+  </si>
+  <si>
+    <t>RV_LH0_AZ</t>
+  </si>
+  <si>
+    <t>RV_LH0_G</t>
+  </si>
+  <si>
+    <t>RV_ROD_G</t>
+  </si>
+  <si>
+    <t>R_LH0_MACDh_LH0</t>
+  </si>
+  <si>
+    <t>R_LH0_MACDh_ROD</t>
+  </si>
+  <si>
+    <t>R_LH0_MACD_diff_LH0</t>
+  </si>
+  <si>
+    <t>R_ROD_R_FH</t>
+  </si>
+  <si>
+    <t>R_ROD_MAD_LH0</t>
+  </si>
+  <si>
+    <t>R_FH_MACDh_LH0</t>
+  </si>
+  <si>
+    <t>R_FH_MAD_LH0</t>
+  </si>
+  <si>
+    <t>MACDh_LH0_MACD_diff_ROD</t>
+  </si>
+  <si>
+    <t>MAD_LH0_MACD_diff_ROD</t>
+  </si>
+  <si>
+    <t>MACDh_ROD_MACD_diff_LH0</t>
+  </si>
+  <si>
+    <t>MACD_diff_LH0_MACD_diff_ROD</t>
+  </si>
+  <si>
+    <t>R_LH0_A_MACDh_LH0_A</t>
+  </si>
+  <si>
+    <t>R_ROD_A_R_FH_A</t>
+  </si>
+  <si>
+    <t>R_ROD_A_BBB_LH0_A</t>
+  </si>
+  <si>
+    <t>R_LH0_AZ_R_FH_AZ</t>
+  </si>
+  <si>
+    <t>input features</t>
   </si>
 </sst>
 </file>
@@ -852,6 +970,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,19 +991,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A95" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,12 +1730,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1830,55 +1948,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -1966,12 +2084,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2123,12 +2241,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2244,12 +2362,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2365,12 +2483,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2467,364 +2585,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12" t="s">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12" t="s">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3084,10 +3202,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4240,18 +4358,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4261,14 +4375,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4277,27 +4395,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42:R50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4332,31 +4450,31 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>0.12280000000000001</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>0.37119999999999997</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>0.26440000000000002</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>-0.49509999999999998</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="12">
         <v>-2.6599999999999999E-2</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="12">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="12">
         <v>0.02</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -4364,31 +4482,31 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>-8.8099999999999998E-2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>0.02</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4396,401 +4514,602 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="I41" s="20" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="I41" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="P42" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -4798,11 +5117,19 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBD531-FE78-444D-A021-DB07FED23CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998044A-3D1C-A44C-B9D5-7747D190FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="37820" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="296">
   <si>
     <t>File name</t>
   </si>
@@ -847,13 +847,91 @@
   </si>
   <si>
     <t>input features</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Article Link</t>
+  </si>
+  <si>
+    <t>Delta-Hedging Demand and Intraday Momentum: Evidence from China</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=4025948</t>
+  </si>
+  <si>
+    <t>Its predictive power is economically significant and will decay in the next three days. Moreover, it reveals the relationship between intraday return prediction and short gamma hedging demand from option market makers, demonstrating that intraday hedging could be postponed till the end of a trading day. </t>
+  </si>
+  <si>
+    <t>Hedging Demand and Market Intraday Momentum</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3760365</t>
+  </si>
+  <si>
+    <t>we document strong “marketintraday momentum” everywhere. The return during the last 30 minutes before the marketclose is positively predicted by the return during the rest of the day (from previous marketclose to the last 30 minutes). The predictive power is economically and statistically highlysignificant, and reverts over the next days.</t>
+  </si>
+  <si>
+    <t>Stock Price Movement Prediction Based on a Deep Factorization Machine and the Attention Mechanism</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2227-7390/9/8/800</t>
+  </si>
+  <si>
+    <t>Main  summary</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Xianghui Yuan,Xiang Li</t>
+  </si>
+  <si>
+    <t>Guido Baltussen, ect</t>
+  </si>
+  <si>
+    <t>377-403</t>
+  </si>
+  <si>
+    <t>(JFE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Financial Economics </t>
+  </si>
+  <si>
+    <t>xiaodong zhang, Shuhui Liu, Xin Zheng</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>DOI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -896,6 +974,27 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -932,10 +1031,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,7 +1079,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -991,10 +1091,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2597,66 +2720,66 @@
       <c r="D79" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
@@ -2671,99 +2794,99 @@
       <c r="D85" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
@@ -2776,66 +2899,66 @@
       <c r="D94" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
@@ -2848,101 +2971,101 @@
       <c r="D100" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -4358,14 +4481,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4375,18 +4502,14 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4397,25 +4520,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4543,15 +4666,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -4622,15 +4745,15 @@
       <c r="J16" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -4701,15 +4824,15 @@
       <c r="J27" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
@@ -4780,43 +4903,43 @@
       <c r="J38" s="19"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="I41" s="22" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="I41" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -4908,10 +5031,10 @@
       <c r="R50" s="19"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="23"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -5105,11 +5228,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5117,6 +5235,11 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5124,12 +5247,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="18" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:27" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+    </row>
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="18">
+        <v>142</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2021</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="18">
+        <v>9</v>
+      </c>
+      <c r="G4" s="18">
+        <v>8</v>
+      </c>
+      <c r="H4" s="18">
+        <v>800</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A12B85E2-A23B-5B4F-8228-609D6C461127}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{72A473B3-485C-1740-9C42-68B80B65698A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998044A-3D1C-A44C-B9D5-7747D190FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAAA2B-A3B7-044D-8EF6-3C1F7DBF34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="10320" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -906,9 +906,6 @@
     <t>Xianghui Yuan,Xiang Li</t>
   </si>
   <si>
-    <t>Guido Baltussen, ect</t>
-  </si>
-  <si>
     <t>377-403</t>
   </si>
   <si>
@@ -925,6 +922,9 @@
   </si>
   <si>
     <t>DOI</t>
+  </si>
+  <si>
+    <t>Guido Baltussen, Zhi Da, Sten Lammers, Martin Martens</t>
   </si>
 </sst>
 </file>
@@ -1081,21 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,6 +1099,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,12 +1853,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2071,55 +2071,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2207,12 +2207,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2364,12 +2364,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2485,12 +2485,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2606,12 +2606,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2708,364 +2708,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19" t="s">
+      <c r="C94" s="27"/>
+      <c r="D94" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="C100" s="27"/>
+      <c r="D100" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3325,10 +3325,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4481,18 +4481,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4502,14 +4498,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4520,25 +4520,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4666,15 +4666,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -4688,72 +4688,72 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -4767,179 +4767,179 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="I41" s="23" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="I41" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -4948,11 +4948,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="19" t="s">
+      <c r="P42" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -4961,14 +4961,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -4977,9 +4977,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -4988,14 +4988,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5004,9 +5004,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5015,9 +5015,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5026,15 +5026,15 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -5228,6 +5228,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5235,11 +5240,6 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5249,8 +5249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5261,108 +5261,108 @@
     <col min="4" max="9" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="K1" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
     </row>
     <row r="2" spans="1:27" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="18">
         <v>142</v>
@@ -5371,27 +5371,27 @@
         <v>1</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" s="18">
         <v>2021</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>291</v>
+      <c r="J3" s="24" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>280</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>293</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>294</v>
       </c>
       <c r="F4" s="18">
         <v>9</v>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAAA2B-A3B7-044D-8EF6-3C1F7DBF34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D437B-8709-6C46-B687-F4D590DB3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="41180" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="300">
   <si>
     <t>File name</t>
   </si>
@@ -925,6 +925,18 @@
   </si>
   <si>
     <t>Guido Baltussen, Zhi Da, Sten Lammers, Martin Martens</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=4032087</t>
+  </si>
+  <si>
+    <t>On the Forecasting Power of Intraday Volatility, Volatility Transmission across Markets and Regime Switches in Volatility</t>
+  </si>
+  <si>
+    <t>Market participants often observe that markets switch between “nervous” and “normal” times, suggesting that two different “regimes of volatility” may exist. If we manage to identify this “nervous” state, maybe we could find out that intraday data do provide valuable information in this special state of the market, but not in the “normal” one. In this case, intraday risk management could prove itself highly useful, but we would not be able to test this in a state independent model such as the one above.</t>
+  </si>
+  <si>
+    <t>Patrick Coggi</t>
   </si>
 </sst>
 </file>
@@ -1101,9 +1113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1111,6 +1120,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1833,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="125" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -1853,12 +1865,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2071,55 +2083,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2207,12 +2219,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2364,12 +2376,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2485,12 +2497,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2606,12 +2618,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2708,364 +2720,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3325,10 +3337,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4481,14 +4493,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4498,18 +4514,14 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4520,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -4688,61 +4700,61 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
@@ -4767,61 +4779,61 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
@@ -4838,69 +4850,69 @@
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
@@ -4948,11 +4960,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="27" t="s">
+      <c r="P42" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -4961,14 +4973,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -4977,9 +4989,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -4988,14 +5000,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5004,9 +5016,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5015,9 +5027,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5026,9 +5038,9 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
@@ -5228,11 +5240,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5240,6 +5247,11 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5247,10 +5259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5406,11 +5418,29 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="5" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2007</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A12B85E2-A23B-5B4F-8228-609D6C461127}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{72A473B3-485C-1740-9C42-68B80B65698A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{90DA0116-BE51-544C-92CF-870A3239D6AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D437B-8709-6C46-B687-F4D590DB3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FC0D9-91CA-4C4C-98F1-29C40EF10729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41180" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="39500" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="305">
   <si>
     <t>File name</t>
   </si>
@@ -937,6 +937,21 @@
   </si>
   <si>
     <t>Patrick Coggi</t>
+  </si>
+  <si>
+    <t>Using dynamic time warping to find patterns in time series</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.5555/3000850.3000887</t>
+  </si>
+  <si>
+    <t>detect time series patterns</t>
+  </si>
+  <si>
+    <t>Donald J. Berndt, James Clifford</t>
+  </si>
+  <si>
+    <t>359-370</t>
   </si>
 </sst>
 </file>
@@ -1113,6 +1128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1120,9 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1865,12 +1880,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2083,55 +2098,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2219,12 +2234,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2376,12 +2391,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2497,12 +2512,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2618,12 +2633,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2720,364 +2735,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26" t="s">
+      <c r="C94" s="27"/>
+      <c r="D94" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26" t="s">
+      <c r="C100" s="27"/>
+      <c r="D100" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3337,10 +3352,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4493,18 +4508,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4514,14 +4525,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4532,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -4700,61 +4715,61 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
@@ -4779,61 +4794,61 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
@@ -4850,69 +4865,69 @@
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
@@ -4960,11 +4975,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="26" t="s">
+      <c r="P42" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -4973,14 +4988,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -4989,9 +5004,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -5000,14 +5015,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5016,9 +5031,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5027,9 +5042,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5038,9 +5053,9 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
@@ -5240,6 +5255,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5247,11 +5267,6 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5259,10 +5274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5435,12 +5450,33 @@
         <v>2007</v>
       </c>
     </row>
+    <row r="6" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1994</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A12B85E2-A23B-5B4F-8228-609D6C461127}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{72A473B3-485C-1740-9C42-68B80B65698A}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{90DA0116-BE51-544C-92CF-870A3239D6AC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{8EC0FB37-F911-B34C-B382-9E22E2CF21EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FC0D9-91CA-4C4C-98F1-29C40EF10729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00497595-632E-9F47-965C-B72BE321BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39500" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="2340" yWindow="1000" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="3" r:id="rId2"/>
     <sheet name="reference" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="citation" localSheetId="2">reference!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="339">
   <si>
     <t>File name</t>
   </si>
@@ -952,13 +955,185 @@
   </si>
   <si>
     <t>359-370</t>
+  </si>
+  <si>
+    <t>0.1228</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>A Multivariate Markov Regime-Switching High-Frequency-Based Volatility Model for Optimal Futures Hedging</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary-wiley-com.auth.lib.niu.edu/doi/epdf/10.1002/fut.21842</t>
+  </si>
+  <si>
+    <t>Yu-Sheng Lai, Her-Jiun Sheu, Hsiang-Tai Lee</t>
+  </si>
+  <si>
+    <t>The Journal of Features Markets</t>
+  </si>
+  <si>
+    <t>1124-1140</t>
+  </si>
+  <si>
+    <t>defintion of realized volatility</t>
+  </si>
+  <si>
+    <t>Deutsche Mark–Dollar Volatility: Intraday Activity Patterns, Macroeconomic Announcements, and Longer Run Dependencies</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/epdf/10.1111/0022-1082.85732</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/0022-1082.85732</t>
+  </si>
+  <si>
+    <t>Torben G. Andersen, Tim Bollerslev</t>
+  </si>
+  <si>
+    <t>The Journal of Finance</t>
+  </si>
+  <si>
+    <t>219-265</t>
+  </si>
+  <si>
+    <t>Testing and modeling jump contagion across international stock markets: A nonparametric intraday approach</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.auth.lib.niu.edu/science/article/pii/S1386418115000634#bib1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FredjJawadi,WaëlLouhich,abdoulkarim Idi Cheffou </t>
+  </si>
+  <si>
+    <t>Journal of Financial Markets</t>
+  </si>
+  <si>
+    <t>64-84</t>
+  </si>
+  <si>
+    <r>
+      <t>S&amp;P 500 equity index data are used in estimations, and the results reveal that the MRS-HEAVY model has a shorter response time than that of the Markov regime-switching GARCH model; this difference is more pronounced in the high-volatility regime than in the low-volatility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> regime. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>European markets are simultaneously affected by events that generate abrupt stock price movements. This finding illustrates a high level of regional contagion among European markets and dependency on the U.S. market. However, such jump linkages vary across markets,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> regimes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and trading hours. Indeed, while regional European jump effects are activated during non-overlapping hours, the U.S. effect is activated and dominates jump spillover during overlapping trading hours.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intraday price information flows between the CSI300 and futures market: an application of wavelet analysis.</t>
+  </si>
+  <si>
+    <t>https://web-p-ebscohost-com.auth.lib.niu.edu/ehost/detail/detail?vid=0&amp;sid=79cd9ea1-824c-4bee-a711-42b901b727d6%40redis&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=129021119&amp;db=bsh</t>
+  </si>
+  <si>
+    <r>
+      <t>This study investigates linear and nonlinear price information flows between the Chinese Stock Index 300 (CSI300) and futures market using high-frequency data and their wavelet transformed series for three</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> regimes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for which stock short-selling restrictions in China are different.</t>
+    </r>
+  </si>
+  <si>
+    <t>Xiaojie, Xu</t>
+  </si>
+  <si>
+    <t>Empirical Economics</t>
+  </si>
+  <si>
+    <t>1267-1295</t>
+  </si>
+  <si>
+    <t>Do the US trends drive the UK–French market linkages?: empirical evidence from a threshold intraday analysis.</t>
+  </si>
+  <si>
+    <t>https://web-s-ebscohost-com.auth.lib.niu.edu/ehost/detail/detail?vid=0&amp;sid=ff8e0ccd-66f6-4a2c-af4a-3197d55fe8fa%40redis&amp;bdata=JnNpdGU9ZWhvc3QtbGl2ZSZzY29wZT1zaXRl#AN=79876989&amp;db=bsh</t>
+  </si>
+  <si>
+    <t>Jawadi, Fredj, Louhichi, Waël, Ben Ameur, Hachmi</t>
+  </si>
+  <si>
+    <t>Applied Economics Letters</t>
+  </si>
+  <si>
+    <t>499-503</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we find significant time-varying dependence between the UK and French stock returns, which alter according to the state of the US market. Indeed, not only does the opening of the US market itself significantly affect the UK stock dependency, but such linkages also seem to be closely dependent on bearish or bullish US market trends.he bearish US trends are a source of minor linkage (lower regime), whereas the bullish US trends involve higher interdependency (upper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1022,6 +1197,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1062,7 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,9 +1308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,7 +1317,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1880,12 +2063,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2098,55 +2281,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2234,12 +2417,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2391,12 +2574,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2512,12 +2695,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2633,12 +2816,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2735,364 +2918,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3352,10 +3535,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4508,14 +4691,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4525,18 +4712,14 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4547,11 +4730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
@@ -4603,8 +4789,8 @@
       <c r="B3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="12">
-        <v>0.12280000000000001</v>
+      <c r="C3" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D3" s="13">
         <v>0.37119999999999997</v>
@@ -4715,61 +4901,61 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
@@ -4794,61 +4980,61 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
@@ -4865,69 +5051,69 @@
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
@@ -4975,11 +5161,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="27" t="s">
+      <c r="P42" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -4988,14 +5174,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -5004,9 +5190,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -5015,14 +5201,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5031,9 +5217,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5042,9 +5228,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5053,213 +5239,442 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
         <v>269</v>
       </c>
       <c r="B52" s="30"/>
+      <c r="C52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>231</v>
       </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53">
+        <v>8.5080000000000003E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>232</v>
       </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54">
+        <v>5.2630000000000003E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>233</v>
       </c>
+      <c r="C55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55">
+        <v>5.1830000000000001E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>234</v>
       </c>
+      <c r="C56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56">
+        <v>4.0009999999999997E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>235</v>
       </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57">
+        <v>3.4299999999999997E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>236</v>
       </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58">
+        <v>2.912E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>237</v>
       </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59">
+        <v>2.4250000000000001E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>238</v>
       </c>
+      <c r="C60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60">
+        <v>2.154E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>239</v>
       </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61">
+        <v>2.1430000000000001E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>240</v>
       </c>
+      <c r="C62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62">
+        <v>2.129E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>241</v>
       </c>
+      <c r="C63" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63">
+        <v>2.0289999999999999E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64">
+        <v>1.7919999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65">
+        <v>1.7170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66">
+        <v>1.6590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67">
+        <v>1.5730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69">
+        <v>1.3939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70">
+        <v>1.393E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71">
+        <v>1.3780000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72">
+        <v>1.265E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73">
+        <v>1.155E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74">
+        <v>1.146E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75">
+        <v>1.023E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76">
+        <v>1.017E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77">
+        <v>9.8399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78">
+        <v>9.7599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79">
+        <v>9.3900000000000008E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>9.1800000000000007E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81">
+        <v>8.6199999999999992E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82">
+        <v>8.6199999999999992E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83">
+        <v>8.4200000000000004E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84">
+        <v>8.3400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85">
+        <v>7.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86">
+        <v>7.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88">
+        <v>7.5700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>268</v>
       </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90">
+        <v>7.4200000000000004E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5267,6 +5682,11 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5274,10 +5694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5470,6 +5890,151 @@
         <v>1994</v>
       </c>
     </row>
+    <row r="7" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="18">
+        <v>37</v>
+      </c>
+      <c r="G7" s="18">
+        <v>11</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="18">
+        <v>53</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1998</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="18">
+        <v>26</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="18">
+        <v>54</v>
+      </c>
+      <c r="G10" s="18">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="18">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18">
+        <v>5</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
@@ -5477,6 +6042,12 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{72A473B3-485C-1740-9C42-68B80B65698A}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{90DA0116-BE51-544C-92CF-870A3239D6AC}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{8EC0FB37-F911-B34C-B382-9E22E2CF21EF}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{547B173E-2213-4343-A706-2B6A7C6FBA77}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{02BF3F20-7345-C64A-BE9E-8ABD7A35B0BF}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{3069B583-2331-8F43-B315-07CA8B6A550D}"/>
+    <hyperlink ref="B9" r:id="rId9" location="bib1" xr:uid="{9AF371DB-2E8A-FC4A-BB27-CAF817B9C556}"/>
+    <hyperlink ref="B10" r:id="rId10" location="AN=129021119&amp;db=bsh" xr:uid="{5177F46F-F0D2-9243-8E76-FC6CA8674AD9}"/>
+    <hyperlink ref="B11" r:id="rId11" location="AN=79876989&amp;db=bsh" xr:uid="{4DBA66BA-F87F-5243-AB4D-BCE1964D8A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00497595-632E-9F47-965C-B72BE321BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70ADAAA-2645-B942-A573-B4F316FE5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1000" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="5440" yWindow="3760" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="391">
   <si>
     <t>File name</t>
   </si>
@@ -934,9 +934,6 @@
   </si>
   <si>
     <t>On the Forecasting Power of Intraday Volatility, Volatility Transmission across Markets and Regime Switches in Volatility</t>
-  </si>
-  <si>
-    <t>Market participants often observe that markets switch between “nervous” and “normal” times, suggesting that two different “regimes of volatility” may exist. If we manage to identify this “nervous” state, maybe we could find out that intraday data do provide valuable information in this special state of the market, but not in the “normal” one. In this case, intraday risk management could prove itself highly useful, but we would not be able to test this in a state independent model such as the one above.</t>
   </si>
   <si>
     <t>Patrick Coggi</t>
@@ -1128,12 +1125,191 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Market participants often observe that markets switch between “nervous” and “normal” times, suggesting that two different “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s of volatility” may exist. If we manage to identify this “nervous” state, maybe we could find out that intraday data do provide valuable information in this special state of the market, but not in the “normal” one. In this case, intraday risk management could prove itself highly useful, but we would not be able to test this in a state independent model such as the one above.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9382996</t>
+  </si>
+  <si>
+    <t>Borui Cai, Guangyan Huang, Najmeh Samadiani, Guanghui Li, Chi-Hung Chi</t>
+  </si>
+  <si>
+    <t>Efficient Time Series Clustering by Minimizing Dynamic Time Warping utilization</t>
+  </si>
+  <si>
+    <t>Dynamic Time Warping (DTW) is a widely used distance measurement in time series clustering.</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>46589 - 46599</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Classification of intraday S&amp;P500 returns with a Random Forest</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.auth.lib.niu.edu/science/article/pii/S0169207018301481</t>
+  </si>
+  <si>
+    <t>background of the stock market prediction</t>
+  </si>
+  <si>
+    <t>Christoph Lohrmann, Sasi Luukka</t>
+  </si>
+  <si>
+    <t>Predicting intraday jumps in stock prices using liquidity measures and technical indicators</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/for.2721</t>
+  </si>
+  <si>
+    <t>Ao Kong, Hongliang Zhu, Robert Azencott</t>
+  </si>
+  <si>
+    <t>416-438</t>
+  </si>
+  <si>
+    <t>Journal of Forcasting</t>
+  </si>
+  <si>
+    <t>technical indicators intro</t>
+  </si>
+  <si>
+    <t>Separating the signal from the noise – Financial machine learning for Twitter</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.auth.lib.niu.edu/science/article/pii/S0165188920300634</t>
+  </si>
+  <si>
+    <t>randome frest intro</t>
+  </si>
+  <si>
+    <t>MatthiasSchnaubelt,Thpmas G.Fischer,hristopherKrauss</t>
+  </si>
+  <si>
+    <t>Journal of Economic Dynamics and Control</t>
+  </si>
+  <si>
+    <t>Random Forests</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/a:1010933404324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Breiman </t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Comparing boosting and bagging techniques with noisy and imbalanced data</t>
+  </si>
+  <si>
+    <t>T.M. Khoshgoftaar, J.V. Hulse, A. Napolitano</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/5645694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Transactions on Systems, Man, and Cybernetics - Part A: Systems and Humans </t>
+  </si>
+  <si>
+    <t>5,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 552 - 568</t>
+  </si>
+  <si>
+    <t>A random forest guided tour</t>
+  </si>
+  <si>
+    <t>The random forest algorithm, proposed by L. Breiman in 2001, has been extremely successful as a general-purpose classification and regression method. The approach, which combines several randomized decision trees and aggregates their predictions by averaging, has shown excellent performance in settings where the number of variables is much larger than the number of observations. Moreover, it is versatile enough to be applied to large-scale problems, is easily adapted to various ad hoc learning tasks, and returns measures of variable importance.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11749-016-0481-7</t>
+  </si>
+  <si>
+    <t>Gérard Biau, Erwan Scornet</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>197-227</t>
+  </si>
+  <si>
+    <t>The Elements of Statistical Learning: Data Mining, Inference, and Prediction</t>
+  </si>
+  <si>
+    <t>T. Hastie, R. Tibshirani, J. Friedman</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/book/10.1007/978-0-387-21606-5</t>
+  </si>
+  <si>
+    <t>Large data sets and machine learning: applications to statistical arbitrage</t>
+  </si>
+  <si>
+    <t>330-342</t>
+  </si>
+  <si>
+    <t>N. Huck</t>
+  </si>
+  <si>
+    <t>European Journal of Operational Research</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0377221719303339</t>
+  </si>
+  <si>
+    <t>Scikit-learn: machine learning in Python</t>
+  </si>
+  <si>
+    <t>2825-2830</t>
+  </si>
+  <si>
+    <t>F. Pedregosa, G. Varoquaux, et al</t>
+  </si>
+  <si>
+    <t>Journal of Machine Learning Research</t>
+  </si>
+  <si>
+    <t>https://www.jmlr.org/papers/volume12/pedregosa11a/pedregosa11a.pdf?ref=https://githubhelp.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1202,6 +1378,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1242,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1307,6 +1490,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1317,13 +1506,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2063,12 +2252,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2281,55 +2470,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2417,12 +2606,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2574,12 +2763,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2695,12 +2884,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2816,12 +3005,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2918,364 +3107,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26" t="s">
+      <c r="C94" s="28"/>
+      <c r="D94" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26" t="s">
+      <c r="C100" s="28"/>
+      <c r="D100" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3535,10 +3724,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4691,18 +4880,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4712,14 +4897,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4730,7 +4919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -4740,18 +4929,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4790,7 +4979,7 @@
         <v>173</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="13">
         <v>0.37119999999999997</v>
@@ -4879,15 +5068,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -4901,72 +5090,72 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -4980,179 +5169,179 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="I41" s="30" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="I41" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -5161,11 +5350,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="26" t="s">
+      <c r="P42" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -5174,14 +5363,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -5190,9 +5379,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -5201,14 +5390,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5217,9 +5406,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5228,9 +5417,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5239,20 +5428,20 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
         <v>306</v>
-      </c>
-      <c r="D52" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -5675,6 +5864,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5682,11 +5876,6 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5694,10 +5883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5861,10 +6050,10 @@
         <v>296</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="I5" s="18">
         <v>2007</v>
@@ -5872,19 +6061,19 @@
     </row>
     <row r="6" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="I6" s="18">
         <v>1994</v>
@@ -5892,19 +6081,19 @@
     </row>
     <row r="7" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>311</v>
       </c>
       <c r="F7" s="18">
         <v>37</v>
@@ -5913,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I7" s="18">
         <v>2017</v>
@@ -5921,19 +6110,19 @@
     </row>
     <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>315</v>
-      </c>
       <c r="C8" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="F8" s="18">
         <v>53</v>
@@ -5942,36 +6131,36 @@
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" s="18">
         <v>1998</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>316</v>
+      <c r="J8" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>322</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>323</v>
       </c>
       <c r="F9" s="18">
         <v>26</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I9" s="18">
         <v>2015</v>
@@ -5979,19 +6168,19 @@
     </row>
     <row r="10" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="F10" s="18">
         <v>54</v>
@@ -6000,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" s="18">
         <v>2018</v>
@@ -6008,19 +6197,19 @@
     </row>
     <row r="11" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>335</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>336</v>
       </c>
       <c r="F11" s="18">
         <v>20</v>
@@ -6029,10 +6218,249 @@
         <v>5</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I11" s="18">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="18">
+        <v>9</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="18">
+        <v>2021</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="18">
+        <v>40</v>
+      </c>
+      <c r="G14" s="18">
+        <v>3</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" s="18">
+        <v>114</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="18">
+        <v>41</v>
+      </c>
+      <c r="G17" s="18">
+        <v>3</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2011</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="18">
+        <v>25</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="I19" s="18">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="18">
+        <v>278</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="18">
+        <v>12</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6048,6 +6476,16 @@
     <hyperlink ref="B9" r:id="rId9" location="bib1" xr:uid="{9AF371DB-2E8A-FC4A-BB27-CAF817B9C556}"/>
     <hyperlink ref="B10" r:id="rId10" location="AN=129021119&amp;db=bsh" xr:uid="{5177F46F-F0D2-9243-8E76-FC6CA8674AD9}"/>
     <hyperlink ref="B11" r:id="rId11" location="AN=79876989&amp;db=bsh" xr:uid="{4DBA66BA-F87F-5243-AB4D-BCE1964D8A3B}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{C4420FB8-7E0D-6F4C-B106-5FE31621A571}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{6631A4FB-9D00-0B44-A29F-8EDDDC6AE07B}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{CA1CC853-C000-0D4D-8976-BB8507B6EA79}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{6D95958E-6B94-234E-80AB-108DE75EFADF}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{9C4DEC04-3199-C640-8D5D-3520F67D9F76}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{5299163D-56BC-D04C-8F24-58B60DE6AAE1}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{32B4E2F6-8C1D-9246-A1EF-31990431DD1D}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70ADAAA-2645-B942-A573-B4F316FE5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC1C57-F2D7-9A4B-A9A9-9E857BF6BC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="3760" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="39300" yWindow="600" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="393">
   <si>
     <t>File name</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>https://www.jmlr.org/papers/volume12/pedregosa11a/pedregosa11a.pdf?ref=https://githubhelp.com</t>
+  </si>
+  <si>
+    <t>International Journal of Forecasting</t>
+  </si>
+  <si>
+    <t>390-407</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1499,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1506,13 +1515,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2252,12 +2258,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2470,55 +2476,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2606,12 +2612,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2763,12 +2769,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2884,12 +2890,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3005,12 +3011,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3107,364 +3113,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28" t="s">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="E100" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3724,10 +3730,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4880,14 +4886,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4897,18 +4907,14 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4919,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91140B6B-5BB2-644F-89F8-77C532EAF352}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4929,18 +4935,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5068,15 +5074,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -5090,72 +5096,72 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -5169,179 +5175,179 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="I41" s="31" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="I41" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -5350,11 +5356,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="28" t="s">
+      <c r="P42" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -5363,14 +5369,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -5379,9 +5385,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -5390,14 +5396,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5406,9 +5412,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5417,9 +5423,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5428,15 +5434,15 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="33"/>
       <c r="C52" t="s">
         <v>305</v>
       </c>
@@ -5864,11 +5870,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5876,6 +5877,11 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5885,8 +5891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6266,6 +6272,21 @@
       <c r="D13" s="18" t="s">
         <v>349</v>
       </c>
+      <c r="E13" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="18">
+        <v>35</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="I13" s="18">
+        <v>2019</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -6297,7 +6318,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="28" t="s">
         <v>356</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -6338,7 +6359,7 @@
       <c r="F16" s="18">
         <v>45</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="27" t="s">
         <v>369</v>
       </c>
       <c r="I16" s="18">

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC1C57-F2D7-9A4B-A9A9-9E857BF6BC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1F0D6-6040-854D-983D-43B956375D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="600" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="43020" yWindow="540" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="398">
   <si>
     <t>File name</t>
   </si>
@@ -1309,6 +1309,21 @@
   </si>
   <si>
     <t>390-407</t>
+  </si>
+  <si>
+    <t>intro of market intraday momentum</t>
+  </si>
+  <si>
+    <t>Market Intraday Momentum</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=2440866</t>
+  </si>
+  <si>
+    <t>reference intro of intraday memtum</t>
+  </si>
+  <si>
+    <t>Lei Gao, Yufeng Han, Sphia Zhengzi Li, Guofu Zhou</t>
   </si>
 </sst>
 </file>
@@ -1506,6 +1521,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1513,9 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,12 +2273,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2476,55 +2491,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2612,12 +2627,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2769,12 +2784,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2890,12 +2905,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3011,12 +3026,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3113,364 +3128,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29" t="s">
+      <c r="C94" s="30"/>
+      <c r="D94" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29" t="s">
+      <c r="C100" s="30"/>
+      <c r="D100" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3730,10 +3745,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,18 +4901,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4907,14 +4918,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5096,61 +5111,61 @@
       <c r="A9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
@@ -5175,61 +5190,61 @@
       <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
@@ -5246,69 +5261,69 @@
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
@@ -5356,11 +5371,11 @@
       <c r="I42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -5369,14 +5384,14 @@
       <c r="I43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -5385,9 +5400,9 @@
       <c r="I45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
@@ -5396,14 +5411,14 @@
       <c r="I46" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
@@ -5412,9 +5427,9 @@
       <c r="I48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -5423,9 +5438,9 @@
       <c r="I49" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
@@ -5434,9 +5449,9 @@
       <c r="I50" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
@@ -5870,6 +5885,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5877,11 +5897,6 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5889,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6484,7 +6499,41 @@
         <v>387</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:J23"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A12B85E2-A23B-5B4F-8228-609D6C461127}"/>
@@ -6507,6 +6556,7 @@
     <hyperlink ref="B19" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
     <hyperlink ref="B20" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
     <hyperlink ref="B21" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{4122B186-A6DF-A04C-86DF-28750AA1A3FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1F0D6-6040-854D-983D-43B956375D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1AC5C-48C6-5E4E-93FA-2A5F44733AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43020" yWindow="540" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="37800" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="424">
   <si>
     <t>File name</t>
   </si>
@@ -1324,6 +1324,84 @@
   </si>
   <si>
     <t>Lei Gao, Yufeng Han, Sphia Zhengzi Li, Guofu Zhou</t>
+  </si>
+  <si>
+    <t>Bitcoin technical trading with artificial neural network</t>
+  </si>
+  <si>
+    <t>Masafumi Nakano, Akihiko Takahashi, Soichiro Takahash</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.physa.2018.07.017</t>
+  </si>
+  <si>
+    <t>Physica A: Statistical Mechanics and its Applications</t>
+  </si>
+  <si>
+    <t>587-609</t>
+  </si>
+  <si>
+    <t>EMA, this indicator is often used in trend-following trading; RSI introduced by \cite{} is often employed in range trading. Specifically, if RSI&gt;0.7 (&lt;0.3), the asset is interpreted to be overbought(oversold).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heuristic based trad- ing system on Forex data using technical indicator rules</t>
+  </si>
+  <si>
+    <t>Murat Ozturk, Ismail Hakki Toroslu, Guven Fidan</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.asoc.2016.01.048</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1568494616300369</t>
+  </si>
+  <si>
+    <t>Applied soft computing</t>
+  </si>
+  <si>
+    <t>Technical indicators can bee calssified into three groups: trend, momentum and volatility based indicators. Intro of technical indicators, specifically introduce several important technical indicators in details.</t>
+  </si>
+  <si>
+    <t>170-186</t>
+  </si>
+  <si>
+    <t>Exploiting intra-day patterns for market shock prediction: A machine learning approach.</t>
+  </si>
+  <si>
+    <t>Jinwen Sun, Keli Xiao, et al.</t>
+  </si>
+  <si>
+    <t>Expert Systems with Applications</t>
+  </si>
+  <si>
+    <t>272-281</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.eswa.2019.03.006</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0957417419301599</t>
+  </si>
+  <si>
+    <t>Adaptive use of tech- nical indicators for the prediction of intra-day stock prices.</t>
+  </si>
+  <si>
+    <t>Mieko Tanaka-Yamawaki, Seiji Tokuoka</t>
+  </si>
+  <si>
+    <t>125-133</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0378437107005067</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.physa.2007.04.126</t>
+  </si>
+  <si>
+    <t>\cite{} selected 10 indicators relevant to intra-day motions based on three categories: the trend-type, the oscillator-type and the mementum-type indicators.</t>
+  </si>
+  <si>
+    <t>technical indicators</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,7 +1599,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,7 +1611,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3140,66 +3227,66 @@
       <c r="D79" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="30"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
@@ -3214,99 +3301,99 @@
       <c r="D85" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
@@ -3319,66 +3406,66 @@
       <c r="D94" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
       <c r="D99" s="30"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30" t="s">
@@ -3391,101 +3478,101 @@
       <c r="D100" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
       <c r="D102" s="30"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
       <c r="D104" s="30"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
       <c r="D106" s="30"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="30"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="30"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -4901,14 +4988,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -4918,18 +5009,14 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4950,18 +5037,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5089,15 +5176,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -5168,15 +5255,15 @@
       <c r="J16" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -5247,15 +5334,15 @@
       <c r="J27" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
@@ -5326,43 +5413,43 @@
       <c r="J38" s="30"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="I41" s="33" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="I41" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -5454,10 +5541,10 @@
       <c r="R50" s="30"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="34"/>
       <c r="C52" t="s">
         <v>305</v>
       </c>
@@ -5885,11 +5972,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5897,6 +5979,11 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5904,10 +5991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6331,208 +6418,334 @@
       <c r="I14" s="18">
         <v>2021</v>
       </c>
+      <c r="K14" s="36" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F15" s="18">
+        <v>383</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2007</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="29">
+        <v>510</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="29">
+        <v>43</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="29">
+        <v>2016</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="29">
+        <v>127</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2019</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B19" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F19" s="18">
         <v>114</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I19" s="18">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B20" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F20" s="18">
         <v>45</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H20" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I20" s="18">
         <v>2001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="21" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F21" s="18">
         <v>41</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G21" s="18">
         <v>3</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I21" s="18">
         <v>2011</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J21" s="23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+    <row r="22" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F22" s="18">
         <v>25</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H22" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I22" s="18">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+    <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B23" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I23" s="18">
         <v>2001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B24" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F24" s="18">
         <v>278</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G24" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H24" s="18" t="s">
         <v>382</v>
-      </c>
-      <c r="I20" s="18">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="F21" s="18">
-        <v>12</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>397</v>
       </c>
       <c r="I24" s="18">
         <v>2019</v>
       </c>
     </row>
+    <row r="25" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="18">
+        <v>12</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:J23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K14:K18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A010BBB0-8004-464E-B412-1FDC80951D56}"/>
@@ -6549,14 +6762,21 @@
     <hyperlink ref="B12" r:id="rId12" xr:uid="{C4420FB8-7E0D-6F4C-B106-5FE31621A571}"/>
     <hyperlink ref="B13" r:id="rId13" xr:uid="{6631A4FB-9D00-0B44-A29F-8EDDDC6AE07B}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{CA1CC853-C000-0D4D-8976-BB8507B6EA79}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{6D95958E-6B94-234E-80AB-108DE75EFADF}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{9C4DEC04-3199-C640-8D5D-3520F67D9F76}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{5299163D-56BC-D04C-8F24-58B60DE6AAE1}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{32B4E2F6-8C1D-9246-A1EF-31990431DD1D}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{4122B186-A6DF-A04C-86DF-28750AA1A3FD}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{6D95958E-6B94-234E-80AB-108DE75EFADF}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{9C4DEC04-3199-C640-8D5D-3520F67D9F76}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{5299163D-56BC-D04C-8F24-58B60DE6AAE1}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{32B4E2F6-8C1D-9246-A1EF-31990431DD1D}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{4122B186-A6DF-A04C-86DF-28750AA1A3FD}"/>
+    <hyperlink ref="J16" r:id="rId23" xr:uid="{BFAC6ED1-C4F3-A74D-AE06-2AA8CA6CF0B8}"/>
+    <hyperlink ref="J17" r:id="rId24" xr:uid="{528EA5FE-A166-9341-BC6A-4865AA97A090}"/>
+    <hyperlink ref="B17" r:id="rId25" xr:uid="{F373AB0E-964B-0144-A029-580EBBD6B1C9}"/>
+    <hyperlink ref="J18" r:id="rId26" xr:uid="{81782154-4A55-7648-BA4C-B272C4CBC0B3}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{F120D1F6-E2C3-8443-9616-0860CE85E7CE}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{4D937143-6B72-B149-BE58-38F5AA1F41EA}"/>
+    <hyperlink ref="J15" r:id="rId29" xr:uid="{09833298-B757-0A46-85EC-BFC3C8B450F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1AC5C-48C6-5E4E-93FA-2A5F44733AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D272AA54-F5BC-8A47-9C38-9863BB8F6544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="38180" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="429">
   <si>
     <t>File name</t>
   </si>
@@ -1402,6 +1402,21 @@
   </si>
   <si>
     <t>technical indicators</t>
+  </si>
+  <si>
+    <t>Forecasting trends of high- frequency KOSPI200 index data using learning classifiers</t>
+  </si>
+  <si>
+    <t>Youngdoo Son et al</t>
+  </si>
+  <si>
+    <t>11607-11615</t>
+  </si>
+  <si>
+    <t>10.1016/j.eswa.2012.04.015</t>
+  </si>
+  <si>
+    <t>Son selected eight common types of technical indicators, such as moving average, relative strength, and price oscillator, to predict the trend direction of the KOSPI200 index 5 minutes ahead.</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,9 +1570,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1620,6 +1632,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2340,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2360,12 +2378,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2578,55 +2596,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2714,12 +2732,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2871,12 +2889,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2992,12 +3010,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3113,12 +3131,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3215,364 +3233,364 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30" t="s">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -3590,13 +3608,13 @@
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="10" t="s">
@@ -3620,13 +3638,13 @@
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="37" t="s">
         <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="37" t="s">
         <v>139</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -3719,7 +3737,7 @@
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="37" t="s">
         <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3832,10 +3850,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5037,18 +5055,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5083,31 +5101,31 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.37119999999999997</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.26440000000000002</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>-0.49509999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>-2.6599999999999999E-2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>0.02</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -5115,31 +5133,31 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>-8.8099999999999998E-2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>0.02</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5147,404 +5165,404 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="I41" s="34" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="I41" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="30" t="s">
+      <c r="P42" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" t="s">
         <v>305</v>
       </c>
@@ -5991,760 +6009,791 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="18" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="21.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="17" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
     </row>
     <row r="2" spans="1:27" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>142</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>2021</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>9</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>8</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>800</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>2007</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>1994</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>37</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>53</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>1998</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>26</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="187" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>54</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="187" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>20</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>5</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>9</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>2021</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>35</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>2019</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>40</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>2021</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="35" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>383</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>2007</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>510</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>2018</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="K16" s="36"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>43</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>2016</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>127</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>2019</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" s="28">
+        <v>39</v>
+      </c>
+      <c r="G19" s="28">
+        <v>14</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="I19" s="28">
+        <v>2012</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F20" s="17">
         <v>114</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="17">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+    <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F21" s="17">
         <v>45</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="17">
         <v>2001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+    <row r="22" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F22" s="17">
         <v>41</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G22" s="17">
         <v>3</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I22" s="17">
         <v>2011</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F23" s="17">
         <v>25</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="17">
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="17">
         <v>2001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F25" s="17">
         <v>278</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H25" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="17">
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F26" s="17">
         <v>12</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="17">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="K14:K18"/>
   </mergeCells>
   <hyperlinks>
@@ -6762,14 +6811,14 @@
     <hyperlink ref="B12" r:id="rId12" xr:uid="{C4420FB8-7E0D-6F4C-B106-5FE31621A571}"/>
     <hyperlink ref="B13" r:id="rId13" xr:uid="{6631A4FB-9D00-0B44-A29F-8EDDDC6AE07B}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{CA1CC853-C000-0D4D-8976-BB8507B6EA79}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{6D95958E-6B94-234E-80AB-108DE75EFADF}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{9C4DEC04-3199-C640-8D5D-3520F67D9F76}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{5299163D-56BC-D04C-8F24-58B60DE6AAE1}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{32B4E2F6-8C1D-9246-A1EF-31990431DD1D}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{4122B186-A6DF-A04C-86DF-28750AA1A3FD}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{6D95958E-6B94-234E-80AB-108DE75EFADF}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{9C4DEC04-3199-C640-8D5D-3520F67D9F76}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{5299163D-56BC-D04C-8F24-58B60DE6AAE1}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{32B4E2F6-8C1D-9246-A1EF-31990431DD1D}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{6B92C33A-8D7C-DB4E-9327-0908EB2F0EBA}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{C65F854C-1F52-484C-A9DD-A8942C7EFDAC}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{09D87D57-0786-5B4E-A576-AAAE627DE686}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{4122B186-A6DF-A04C-86DF-28750AA1A3FD}"/>
     <hyperlink ref="J16" r:id="rId23" xr:uid="{BFAC6ED1-C4F3-A74D-AE06-2AA8CA6CF0B8}"/>
     <hyperlink ref="J17" r:id="rId24" xr:uid="{528EA5FE-A166-9341-BC6A-4865AA97A090}"/>
     <hyperlink ref="B17" r:id="rId25" xr:uid="{F373AB0E-964B-0144-A029-580EBBD6B1C9}"/>

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D272AA54-F5BC-8A47-9C38-9863BB8F6544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A487CAA-992A-3241-B410-E21DAE6A7DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38180" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="35840" windowHeight="20600" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="citation" localSheetId="2">reference!$A$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1613,6 +1613,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,21 +1635,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2358,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59CB60-E64B-2842-94C1-32F0D9E956CD}">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A113" zoomScale="125" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
@@ -2378,12 +2378,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2596,55 +2596,55 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2732,12 +2732,12 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2889,12 +2889,12 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3010,12 +3010,12 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -3131,12 +3131,12 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3233,16 +3233,16 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E79" s="32"/>
@@ -3252,10 +3252,10 @@
       <c r="I79" s="32"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
@@ -3263,10 +3263,10 @@
       <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -3274,10 +3274,10 @@
       <c r="I81" s="32"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -3285,10 +3285,10 @@
       <c r="I82" s="32"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
@@ -3296,10 +3296,10 @@
       <c r="I83" s="32"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -3307,16 +3307,16 @@
       <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="33" t="s">
         <v>125</v>
       </c>
       <c r="E85" s="32"/>
@@ -3326,10 +3326,10 @@
       <c r="I85" s="32"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -3337,10 +3337,10 @@
       <c r="I86" s="32"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
@@ -3348,10 +3348,10 @@
       <c r="I87" s="32"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -3359,10 +3359,10 @@
       <c r="I88" s="32"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -3370,10 +3370,10 @@
       <c r="I89" s="32"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -3381,10 +3381,10 @@
       <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -3392,10 +3392,10 @@
       <c r="I91" s="32"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -3403,10 +3403,10 @@
       <c r="I92" s="32"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -3414,14 +3414,14 @@
       <c r="I93" s="32"/>
     </row>
     <row r="94" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29" t="s">
+      <c r="C94" s="33"/>
+      <c r="D94" s="33" t="s">
         <v>129</v>
       </c>
       <c r="E94" s="32"/>
@@ -3431,10 +3431,10 @@
       <c r="I94" s="32"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
@@ -3442,10 +3442,10 @@
       <c r="I95" s="32"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -3453,10 +3453,10 @@
       <c r="I96" s="32"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -3464,10 +3464,10 @@
       <c r="I97" s="32"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -3475,10 +3475,10 @@
       <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -3486,14 +3486,14 @@
       <c r="I99" s="32"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E100" s="32" t="s">
@@ -3505,10 +3505,10 @@
       <c r="I100" s="32"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
@@ -3516,10 +3516,10 @@
       <c r="I101" s="32"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
@@ -3527,10 +3527,10 @@
       <c r="I102" s="32"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
       <c r="G103" s="32"/>
@@ -3538,10 +3538,10 @@
       <c r="I103" s="32"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
@@ -3549,10 +3549,10 @@
       <c r="I104" s="32"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
@@ -3560,10 +3560,10 @@
       <c r="I105" s="32"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -3571,10 +3571,10 @@
       <c r="I106" s="32"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="32"/>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -3582,10 +3582,10 @@
       <c r="I107" s="32"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="32"/>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -3608,13 +3608,13 @@
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="10" t="s">
@@ -3638,13 +3638,13 @@
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="31" t="s">
         <v>139</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -3737,7 +3737,7 @@
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3850,10 +3850,10 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5006,18 +5006,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E94:I99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:I108"/>
-    <mergeCell ref="E79:I84"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
+    <mergeCell ref="D94:D99"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A45:D45"/>
@@ -5027,14 +5023,18 @@
     <mergeCell ref="D79:D84"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="D94:D99"/>
+    <mergeCell ref="E79:I84"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:I93"/>
+    <mergeCell ref="E94:I99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="E100:I108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5055,18 +5055,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5194,15 +5194,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -5216,72 +5216,72 @@
       <c r="A9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -5295,179 +5295,179 @@
       <c r="A20" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="I41" s="33" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="I41" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -5476,11 +5476,11 @@
       <c r="I42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
@@ -5489,14 +5489,14 @@
       <c r="I43" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
@@ -5505,9 +5505,9 @@
       <c r="I45" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
     </row>
     <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
@@ -5516,14 +5516,14 @@
       <c r="I46" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
     </row>
     <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
@@ -5532,9 +5532,9 @@
       <c r="I48" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
     </row>
     <row r="49" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
@@ -5543,9 +5543,9 @@
       <c r="I49" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
     </row>
     <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -5554,15 +5554,15 @@
       <c r="I50" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" t="s">
         <v>305</v>
       </c>
@@ -5990,6 +5990,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="H30:J38"/>
     <mergeCell ref="H20:J27"/>
@@ -5997,11 +6002,6 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="I41:O41"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6011,8 +6011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6436,7 +6436,7 @@
       <c r="I14" s="17">
         <v>2021</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="37" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6468,10 +6468,10 @@
       <c r="I15" s="17">
         <v>2007</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
@@ -6497,10 +6497,10 @@
       <c r="I16" s="28">
         <v>2018</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
@@ -6528,10 +6528,10 @@
       <c r="I17" s="28">
         <v>2016</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
@@ -6557,10 +6557,10 @@
       <c r="I18" s="28">
         <v>2019</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
@@ -6588,10 +6588,10 @@
       <c r="I19" s="28">
         <v>2012</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="K19" s="36"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
@@ -6761,18 +6761,18 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">

--- a/Intraday Momentum/Intraday_Momentum_Summary.xlsx
+++ b/Intraday Momentum/Intraday_Momentum_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/WrappingUp_Exploring_Intraday_Momentum/Intraday Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A487CAA-992A-3241-B410-E21DAE6A7DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE3287-8CFF-BC4C-AC49-B9F97780F6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="460" windowWidth="35840" windowHeight="20600" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" activeTab="2" xr2:uid="{FC3B21DE-C442-B24C-8A37-E30341245C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary ipynb files" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="432">
   <si>
     <t>File name</t>
   </si>
@@ -1417,6 +1417,15 @@
   </si>
   <si>
     <t>Son selected eight common types of technical indicators, such as moving average, relative strength, and price oscillator, to predict the trend direction of the KOSPI200 index 5 minutes ahead.</t>
+  </si>
+  <si>
+    <t>F1-score intro</t>
+  </si>
+  <si>
+    <t>meta-labeling</t>
+  </si>
+  <si>
+    <t>https://upcommons.upc.edu/bitstream/handle/2117/340312/TFG_Guillermo_Creus_Botella.pdf?sequence=1</t>
   </si>
 </sst>
 </file>
@@ -6009,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37294228-D863-5D42-8C72-8BC07E901F2C}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6058,7 +6067,9 @@
         <v>294</v>
       </c>
       <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="M1" s="24" t="s">
+        <v>429</v>
+      </c>
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -6095,7 +6106,9 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -6141,6 +6154,9 @@
       <c r="J3" s="23" t="s">
         <v>290</v>
       </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -6167,6 +6183,9 @@
       <c r="I4" s="17">
         <v>2021</v>
       </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -6184,6 +6203,9 @@
       <c r="I5" s="17">
         <v>2007</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -6204,6 +6226,9 @@
       <c r="I6" s="17">
         <v>1994</v>
       </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -6233,6 +6258,9 @@
       <c r="I7" s="17">
         <v>2017</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -6265,6 +6293,9 @@
       <c r="J8" s="25" t="s">
         <v>315</v>
       </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -6291,6 +6322,9 @@
       <c r="I9" s="17">
         <v>2015</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -6407,6 +6441,9 @@
       <c r="I13" s="17">
         <v>2019</v>
       </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -6439,6 +6476,9 @@
       <c r="K14" s="37" t="s">
         <v>423</v>
       </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -6472,6 +6512,9 @@
         <v>421</v>
       </c>
       <c r="K15" s="37"/>
+      <c r="M15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
@@ -6502,7 +6545,7 @@
       </c>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>404</v>
       </c>
@@ -6533,7 +6576,7 @@
       </c>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>411</v>
       </c>
@@ -6562,7 +6605,7 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>424</v>
       </c>
@@ -6593,7 +6636,7 @@
       </c>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>356</v>
       </c>
@@ -6615,8 +6658,11 @@
       <c r="I20" s="17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>361</v>
       </c>
@@ -6641,8 +6687,11 @@
       <c r="I21" s="17">
         <v>2001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>365</v>
       </c>
@@ -6670,8 +6719,11 @@
       <c r="J22" s="22" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="204" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>371</v>
       </c>
@@ -6696,8 +6748,11 @@
       <c r="I23" s="17">
         <v>2016</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>377</v>
       </c>
@@ -6714,7 +6769,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>381</v>
       </c>
@@ -6739,8 +6794,11 @@
       <c r="I25" s="17">
         <v>2019</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>386</v>
       </c>
@@ -6760,7 +6818,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>393</v>
       </c>
@@ -6774,7 +6832,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>394</v>
       </c>
@@ -6789,6 +6847,14 @@
       </c>
       <c r="I29" s="17">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6826,6 +6892,7 @@
     <hyperlink ref="B18" r:id="rId27" xr:uid="{F120D1F6-E2C3-8443-9616-0860CE85E7CE}"/>
     <hyperlink ref="B15" r:id="rId28" xr:uid="{4D937143-6B72-B149-BE58-38F5AA1F41EA}"/>
     <hyperlink ref="J15" r:id="rId29" xr:uid="{09833298-B757-0A46-85EC-BFC3C8B450F9}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{855C04ED-9F29-2142-843D-9615186C8790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
